--- a/biology/Zoologie/Bungarus_ceylonicus/Bungarus_ceylonicus.xlsx
+++ b/biology/Zoologie/Bungarus_ceylonicus/Bungarus_ceylonicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bungarus ceylonicus est une espèce de serpents de la famille des Elapidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bungarus ceylonicus est une espèce de serpents de la famille des Elapidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sri Lanka[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sri Lanka.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2], Günther indique que le plus grand spécimen en sa possession mesure 102 cm dont 9 cm pour la queue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description, Günther indique que le plus grand spécimen en sa possession mesure 102 cm dont 9 cm pour la queue.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Bungarus ceylonicus ceylonicus Günther, 1864
 Bungarus ceylonicus karavala Deraniyagala, 1955</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, ceylonicus, lui a été donné en référence au lieu de sa découverte, Ceylan (Ceylon en anglais), l'ancien nom du Sri Lanka.
 </t>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Deraniyagala, 1955 : A colored atlas of some vertebrates from Ceylon, vol. 3, no 7, p. 1-121.
 Günther, 1864 : The reptiles of British India. London, Taylor &amp; Francis, p. 1-452 (texte intégral).</t>
